--- a/data/trans_orig/Barthel-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Barthel-Estudios-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>92.27849455047118</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>89.36221366713073</v>
+        <v>89.36221366713072</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>95.90723867234543</v>
@@ -693,7 +693,7 @@
         <v>93.31421073585709</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>91.15947495471103</v>
+        <v>91.15947495471104</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>95.61551967397999</v>
+        <v>95.56836376926155</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>92.33962628428588</v>
+        <v>92.49204743865555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>93.5695288378555</v>
+        <v>93.49041216540051</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>93.1725065067392</v>
+        <v>93.21482205353465</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>94.20722523970461</v>
+        <v>94.02848499580824</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>89.50762102105323</v>
+        <v>89.42441601776441</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>90.51662895626427</v>
+        <v>90.38149500196293</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>88.07961063094817</v>
+        <v>88.11230167694451</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>94.96571603321514</v>
+        <v>94.97967010736126</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91.03460915168961</v>
+        <v>91.02739141351215</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92.13915447785429</v>
+        <v>92.15168255091531</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>90.15604463396799</v>
+        <v>90.11717659199768</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>97.76484368494053</v>
+        <v>97.78158712646203</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>95.65715495526436</v>
+        <v>95.71100860718238</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96.12080204348563</v>
+        <v>96.18303225077842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95.50726411749787</v>
+        <v>95.55136202751628</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>96.42921454876277</v>
+        <v>96.30470150172482</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>92.55510986730589</v>
+        <v>92.47462042352555</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>93.68221063095531</v>
+        <v>93.65207754300036</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>90.56338934970796</v>
+        <v>90.53888573999056</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>96.6234386651344</v>
+        <v>96.6259639509871</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>93.35454647413674</v>
+        <v>93.27776167114634</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>94.36021627853924</v>
+        <v>94.30093927944817</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>91.95649916041314</v>
+        <v>91.95567496648796</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>98.03211147012671</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97.36479787807609</v>
+        <v>97.3647978780761</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>96.78311696576127</v>
@@ -817,7 +817,7 @@
         <v>96.85026878846018</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>96.08987136965806</v>
+        <v>96.08987136965804</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>98.08474393005747</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>96.79371126899142</v>
+        <v>96.77818350694633</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>93.90440645380615</v>
+        <v>94.02873206021488</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>96.24836444008619</v>
+        <v>96.21776611216293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96.17801043498406</v>
+        <v>96.24805910507645</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>89.47290328682594</v>
+        <v>89.78192547451927</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>89.37987875353231</v>
+        <v>89.30629601467959</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>95.35803940513459</v>
+        <v>95.19102857943393</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>94.97110249728806</v>
+        <v>94.88776933873346</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>95.508779972707</v>
+        <v>95.01397125019967</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>94.07930185832204</v>
+        <v>93.65915538739522</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96.44805476605022</v>
+        <v>96.28529870950132</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>95.94944547723746</v>
+        <v>96.03936202143584</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>99.67272948252221</v>
+        <v>99.65259878255343</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>98.76087686148605</v>
+        <v>98.89289823538137</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>99.04652329850032</v>
+        <v>98.95853954954649</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>98.12249485238699</v>
+        <v>98.16064254772242</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>98.82224524779245</v>
+        <v>99.07466249621649</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>97.82386538663816</v>
+        <v>97.7265051949672</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>97.96523918177068</v>
+        <v>97.91886368410934</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>96.8708483546355</v>
+        <v>96.87343769311853</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>99.21800907554413</v>
+        <v>99.1112992946007</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>98.10971809036124</v>
+        <v>97.94055291399103</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>98.17224848489467</v>
+        <v>98.15263863225017</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>97.35993676933019</v>
+        <v>97.46197962294059</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>97.58480911216779</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>98.6372819684361</v>
+        <v>98.63728196843608</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>97.89185660428161</v>
+        <v>98.117698260935</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>93.09161074690319</v>
+        <v>92.75972770998439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93.96816502513745</v>
+        <v>93.21749948325862</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>97.44668500380008</v>
+        <v>97.23638503490689</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>94.04603311753836</v>
+        <v>94.12786159783886</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>83.38877881008851</v>
+        <v>83.90674026396802</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>87.4211349943601</v>
+        <v>88.46017391067309</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>97.96948813168707</v>
+        <v>97.90230076011858</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>97.05096382560008</v>
+        <v>96.88687699056173</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>91.44662214161264</v>
+        <v>91.20423796672085</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>93.03593240913857</v>
+        <v>93.35538386500404</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>97.78695990842094</v>
+        <v>97.85986832633078</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>99.87739553728957</v>
+        <v>99.87392328288686</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>100</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>99.55861902116017</v>
+        <v>99.44140480366406</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99.23994521664285</v>
+        <v>99.2524548449011</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>99.50021659163261</v>
+        <v>99.47871948514938</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>98.57680823760323</v>
+        <v>98.40750988550815</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>99.50408184540606</v>
+        <v>99.49385148313796</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>99.144439177525</v>
+        <v>99.07700611413885</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>99.49123841248715</v>
+        <v>99.50747734248689</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>98.82914895485915</v>
+        <v>98.66771788745062</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>99.30316249924243</v>
+        <v>99.25678695120315</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>99.03865403490423</v>
+        <v>99.02211692808748</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>93.59396662918351</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>92.31057652173523</v>
+        <v>92.31057652173524</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>96.34922782695061</v>
@@ -1101,7 +1101,7 @@
         <v>94.70375738964555</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>94.12825474433002</v>
+        <v>94.12825474433001</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>96.33603205042245</v>
+        <v>96.5399259819289</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>93.69115955976153</v>
+        <v>93.51298968718861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95.10781491437744</v>
+        <v>95.20760128601363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95.6674498610613</v>
+        <v>95.6550237375192</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>94.36228993603909</v>
+        <v>94.297078925332</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>90.07271981061409</v>
+        <v>90.09255836844221</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>92.23497067375445</v>
+        <v>92.118428254907</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>91.42375286181299</v>
+        <v>91.42242255261762</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>95.52550752232368</v>
+        <v>95.62757927467513</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91.98004446380453</v>
+        <v>92.10742320609052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>93.88580130380082</v>
+        <v>93.78581505216795</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>93.57334802650158</v>
+        <v>93.53173293373771</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>98.12309932710885</v>
+        <v>98.0694256275913</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>96.16746029932288</v>
+        <v>96.29050731959678</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>97.03974436943601</v>
+        <v>96.98996284419357</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>96.98961204316252</v>
+        <v>97.02489092041441</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>96.46748363463651</v>
+        <v>96.4052674998523</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>92.97433800551761</v>
+        <v>92.91361478953031</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>94.63658609965773</v>
+        <v>94.61292402200938</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>93.09841528784143</v>
+        <v>93.06309683025393</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>96.97706321241664</v>
+        <v>96.99269619363292</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>93.96522716582484</v>
+        <v>93.99403001442755</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>95.42548216046619</v>
+        <v>95.45539849267784</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>94.61097155698401</v>
+        <v>94.64804378473048</v>
       </c>
     </row>
     <row r="16">
